--- a/Code/Results/Cases/Case_9_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_49/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9218604261665746</v>
+        <v>0.8865973629729922</v>
       </c>
       <c r="C2">
-        <v>0.154416306667045</v>
+        <v>0.1636822158088762</v>
       </c>
       <c r="D2">
-        <v>0.2563721551484264</v>
+        <v>0.262994005090178</v>
       </c>
       <c r="E2">
-        <v>0.2017892094125884</v>
+        <v>0.2040414708156959</v>
       </c>
       <c r="F2">
-        <v>0.6907806424504912</v>
+        <v>0.6642883063475225</v>
       </c>
       <c r="G2">
-        <v>0.3670051026122394</v>
+        <v>0.3282331866615493</v>
       </c>
       <c r="H2">
-        <v>9.572356792642012E-05</v>
+        <v>5.952197195968623E-05</v>
       </c>
       <c r="I2">
-        <v>0.0008831724878191061</v>
+        <v>0.000707023297024989</v>
       </c>
       <c r="J2">
-        <v>0.3267862777703954</v>
+        <v>0.3430355659869875</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2131004109302452</v>
+        <v>0.1476733241228771</v>
       </c>
       <c r="M2">
-        <v>0.9642852972528999</v>
+        <v>0.07260254935208543</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2131369464196382</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.9682591564657059</v>
       </c>
       <c r="P2">
-        <v>0.822897133445526</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.409631716513871</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.8092601275377724</v>
+      </c>
+      <c r="S2">
+        <v>1.334561347172396</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8027769490555556</v>
+        <v>0.7759432622119675</v>
       </c>
       <c r="C3">
-        <v>0.1394638603031808</v>
+        <v>0.1437593963426735</v>
       </c>
       <c r="D3">
-        <v>0.2272467261911828</v>
+        <v>0.2328538915490554</v>
       </c>
       <c r="E3">
-        <v>0.1797673182289117</v>
+        <v>0.1818801856462855</v>
       </c>
       <c r="F3">
-        <v>0.6602304148274385</v>
+        <v>0.637049749576029</v>
       </c>
       <c r="G3">
-        <v>0.3553525835835956</v>
+        <v>0.3199684381365131</v>
       </c>
       <c r="H3">
-        <v>0.0005004859997266298</v>
+        <v>0.0003934002578318552</v>
       </c>
       <c r="I3">
-        <v>0.001405908446846738</v>
+        <v>0.001004533586846268</v>
       </c>
       <c r="J3">
-        <v>0.3250750374069327</v>
+        <v>0.3401109391236332</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1905301591516064</v>
+        <v>0.1523127677665777</v>
       </c>
       <c r="M3">
-        <v>0.8410493104904901</v>
+        <v>0.07143007998534756</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1909137588186098</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8445931169864878</v>
       </c>
       <c r="P3">
-        <v>0.8466415704814452</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.381088817472573</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.8293924340579473</v>
+      </c>
+      <c r="S3">
+        <v>1.313315367862316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.729257967749362</v>
+        <v>0.707427468578004</v>
       </c>
       <c r="C4">
-        <v>0.1303990856424093</v>
+        <v>0.1317496637290816</v>
       </c>
       <c r="D4">
-        <v>0.2094222900084048</v>
+        <v>0.2144289361428804</v>
       </c>
       <c r="E4">
-        <v>0.1662468145285487</v>
+        <v>0.1682785428246447</v>
       </c>
       <c r="F4">
-        <v>0.6418562127930514</v>
+        <v>0.62061120057529</v>
       </c>
       <c r="G4">
-        <v>0.3484878369937263</v>
+        <v>0.3151831190658285</v>
       </c>
       <c r="H4">
-        <v>0.0009244938218816445</v>
+        <v>0.0007602196092697522</v>
       </c>
       <c r="I4">
-        <v>0.001880059621303332</v>
+        <v>0.001316576727904639</v>
       </c>
       <c r="J4">
-        <v>0.3242339638207952</v>
+        <v>0.338376866570762</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1766379793839832</v>
+        <v>0.1552745410097778</v>
       </c>
       <c r="M4">
-        <v>0.7652662016464262</v>
+        <v>0.07119342404231865</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1772299995555713</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.7685286697126799</v>
       </c>
       <c r="P4">
-        <v>0.8618144184864391</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.364609935384848</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.8423784458677765</v>
+      </c>
+      <c r="S4">
+        <v>1.301045393447438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6984653030162917</v>
+        <v>0.6786460022956078</v>
       </c>
       <c r="C5">
-        <v>0.1270922638072278</v>
+        <v>0.1272975255400013</v>
       </c>
       <c r="D5">
-        <v>0.2022727841155216</v>
+        <v>0.2070410313106379</v>
       </c>
       <c r="E5">
-        <v>0.1607583164621538</v>
+        <v>0.1627582806806238</v>
       </c>
       <c r="F5">
-        <v>0.6340635942871273</v>
+        <v>0.613591565299906</v>
       </c>
       <c r="G5">
-        <v>0.3454381295598026</v>
+        <v>0.3129948628452368</v>
       </c>
       <c r="H5">
-        <v>0.001140348928399426</v>
+        <v>0.000949395822049337</v>
       </c>
       <c r="I5">
-        <v>0.002182824295020147</v>
+        <v>0.001559528996160076</v>
       </c>
       <c r="J5">
-        <v>0.3237752985832714</v>
+        <v>0.3375155442935309</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1709465419471172</v>
+        <v>0.1563688833817025</v>
       </c>
       <c r="M5">
-        <v>0.7343987884906085</v>
+        <v>0.07115901834331773</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1716226724387369</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7375432241711906</v>
       </c>
       <c r="P5">
-        <v>0.8681894288874865</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.3571151442505</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.8478925237370021</v>
+      </c>
+      <c r="S5">
+        <v>1.29523063297016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6924507999924288</v>
+        <v>0.6729812694020154</v>
       </c>
       <c r="C6">
-        <v>0.1269871159318967</v>
+        <v>0.1270388129746038</v>
       </c>
       <c r="D6">
-        <v>0.2012100544203292</v>
+        <v>0.2059398162721067</v>
       </c>
       <c r="E6">
-        <v>0.1598740709935704</v>
+        <v>0.1618689488402261</v>
       </c>
       <c r="F6">
-        <v>0.6322893870568294</v>
+        <v>0.6119544133523647</v>
       </c>
       <c r="G6">
-        <v>0.3445423431144761</v>
+        <v>0.3122601224638331</v>
       </c>
       <c r="H6">
-        <v>0.001179720892396929</v>
+        <v>0.0009840198643353837</v>
       </c>
       <c r="I6">
-        <v>0.002331366759761977</v>
+        <v>0.001713953846694594</v>
       </c>
       <c r="J6">
-        <v>0.323497717000798</v>
+        <v>0.3371659929024773</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1699758940782985</v>
+        <v>0.1563808249255061</v>
       </c>
       <c r="M6">
-        <v>0.729329627774149</v>
+        <v>0.07108793752220244</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1706662010328301</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7324545203857582</v>
       </c>
       <c r="P6">
-        <v>0.8693149478600262</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.354623049983488</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.8489031433945655</v>
+      </c>
+      <c r="S6">
+        <v>1.293052612784351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7263896401372278</v>
+        <v>0.7041957602923503</v>
       </c>
       <c r="C7">
-        <v>0.1315648722241605</v>
+        <v>0.1328051390607499</v>
       </c>
       <c r="D7">
-        <v>0.2096642259645591</v>
+        <v>0.214878226857806</v>
       </c>
       <c r="E7">
-        <v>0.1662473707696641</v>
+        <v>0.1683230737848866</v>
       </c>
       <c r="F7">
-        <v>0.6404247278303643</v>
+        <v>0.6184315332449088</v>
       </c>
       <c r="G7">
-        <v>0.3473720907342539</v>
+        <v>0.3165230375722672</v>
       </c>
       <c r="H7">
-        <v>0.0009296532489633247</v>
+        <v>0.0007663569573039819</v>
       </c>
       <c r="I7">
-        <v>0.00213090810026717</v>
+        <v>0.001610495292118763</v>
       </c>
       <c r="J7">
-        <v>0.3236701019346384</v>
+        <v>0.3342679994497502</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1764931680986592</v>
+        <v>0.1546791669732848</v>
       </c>
       <c r="M7">
-        <v>0.7650096933525106</v>
+        <v>0.07090916618742593</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1770430172828981</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7675911011713765</v>
       </c>
       <c r="P7">
-        <v>0.8620712829456423</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.361062377696427</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.8428289841591159</v>
+      </c>
+      <c r="S7">
+        <v>1.295626924145836</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8776046061217073</v>
+        <v>0.8438808142747689</v>
       </c>
       <c r="C8">
-        <v>0.1508536156096483</v>
+        <v>0.1578770830887208</v>
       </c>
       <c r="D8">
-        <v>0.2467670193091465</v>
+        <v>0.2537378953008016</v>
       </c>
       <c r="E8">
-        <v>0.1942948548501917</v>
+        <v>0.1966480742207253</v>
       </c>
       <c r="F8">
-        <v>0.6784128156796498</v>
+        <v>0.6505182232631839</v>
       </c>
       <c r="G8">
-        <v>0.3615066395480184</v>
+        <v>0.3319955256117666</v>
       </c>
       <c r="H8">
-        <v>0.000199112225179654</v>
+        <v>0.0001433038662799202</v>
       </c>
       <c r="I8">
-        <v>0.001327271043721545</v>
+        <v>0.001135120701571957</v>
       </c>
       <c r="J8">
-        <v>0.3254190586022432</v>
+        <v>0.3298013355592531</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2052345574229477</v>
+        <v>0.148254299313205</v>
       </c>
       <c r="M8">
-        <v>0.9220262902078105</v>
+        <v>0.07148299444360973</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.205247814632763</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9235738132489075</v>
       </c>
       <c r="P8">
-        <v>0.8312417542856991</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.395024648147825</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.8169777743347773</v>
+      </c>
+      <c r="S8">
+        <v>1.316083532375089</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.175445353173302</v>
+        <v>1.119194666529552</v>
       </c>
       <c r="C9">
-        <v>0.1875060800327191</v>
+        <v>0.2072332017787346</v>
       </c>
       <c r="D9">
-        <v>0.3194613216619047</v>
+        <v>0.3292899164622298</v>
       </c>
       <c r="E9">
-        <v>0.2492295776429927</v>
+        <v>0.2519965370014674</v>
       </c>
       <c r="F9">
-        <v>0.7585324457847236</v>
+        <v>0.7210600824418094</v>
       </c>
       <c r="G9">
-        <v>0.3936008386605039</v>
+        <v>0.357825292911599</v>
       </c>
       <c r="H9">
-        <v>0.0002462768212398991</v>
+        <v>0.0002786752573451512</v>
       </c>
       <c r="I9">
-        <v>0.0006664981694850525</v>
+        <v>0.0008385240297066332</v>
       </c>
       <c r="J9">
-        <v>0.3315674140544047</v>
+        <v>0.3350020451644014</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2615124518481906</v>
+        <v>0.1378308969473618</v>
       </c>
       <c r="M9">
-        <v>1.228929171816191</v>
+        <v>0.0771818557855557</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2605877801460537</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.230742691458346</v>
       </c>
       <c r="P9">
-        <v>0.7752580706066325</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.476540178534989</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.7703658863075376</v>
+      </c>
+      <c r="S9">
+        <v>1.375923088713037</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.386954335162358</v>
+        <v>1.311406072591069</v>
       </c>
       <c r="C10">
-        <v>0.2147081203320766</v>
+        <v>0.2426960857078626</v>
       </c>
       <c r="D10">
-        <v>0.3651917800839186</v>
+        <v>0.3782552073425052</v>
       </c>
       <c r="E10">
-        <v>0.2789727753108551</v>
+        <v>0.2822492569704025</v>
       </c>
       <c r="F10">
-        <v>0.8080594967811479</v>
+        <v>0.7592310504981654</v>
       </c>
       <c r="G10">
-        <v>0.4133897123146113</v>
+        <v>0.38800614892277</v>
       </c>
       <c r="H10">
-        <v>0.001397035536574887</v>
+        <v>0.001402989027793122</v>
       </c>
       <c r="I10">
-        <v>0.00118546551497456</v>
+        <v>0.001497618813042223</v>
       </c>
       <c r="J10">
-        <v>0.3344807540655665</v>
+        <v>0.318033441201834</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2884210728737031</v>
+        <v>0.1293002050539158</v>
       </c>
       <c r="M10">
-        <v>1.449067647941291</v>
+        <v>0.08209250344134134</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2865920854423507</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.446755025062373</v>
       </c>
       <c r="P10">
-        <v>0.7389232112616959</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.524997432359811</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.742725593774054</v>
+      </c>
+      <c r="S10">
+        <v>1.397422220499706</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.441376485306535</v>
+        <v>1.359437319577268</v>
       </c>
       <c r="C11">
-        <v>0.2195982892503423</v>
+        <v>0.2452490846235662</v>
       </c>
       <c r="D11">
-        <v>0.3170461499427972</v>
+        <v>0.331498940716358</v>
       </c>
       <c r="E11">
-        <v>0.2065654379204531</v>
+        <v>0.2097427350379917</v>
       </c>
       <c r="F11">
-        <v>0.7358722248307785</v>
+        <v>0.6813506143216159</v>
       </c>
       <c r="G11">
-        <v>0.3786344446461882</v>
+        <v>0.38571841185518</v>
       </c>
       <c r="H11">
-        <v>0.01983269586993686</v>
+        <v>0.01980788471079364</v>
       </c>
       <c r="I11">
-        <v>0.001891153265238366</v>
+        <v>0.002301576508347836</v>
       </c>
       <c r="J11">
-        <v>0.3139847834661822</v>
+        <v>0.2675041494841039</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1905432210025708</v>
+        <v>0.1186945436953444</v>
       </c>
       <c r="M11">
-        <v>1.503015552116892</v>
+        <v>0.07605835462975108</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1886164051969033</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.491335773823522</v>
       </c>
       <c r="P11">
-        <v>0.7389617888141728</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.408543592993595</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.753185711159297</v>
+      </c>
+      <c r="S11">
+        <v>1.26654612820262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.446062888181302</v>
+        <v>1.364507085023064</v>
       </c>
       <c r="C12">
-        <v>0.2159415867778307</v>
+        <v>0.2383746321865772</v>
       </c>
       <c r="D12">
-        <v>0.2695044616340283</v>
+        <v>0.2834893522226452</v>
       </c>
       <c r="E12">
-        <v>0.1492415969481335</v>
+        <v>0.1519898886423157</v>
       </c>
       <c r="F12">
-        <v>0.6688546933989343</v>
+        <v>0.6151655997604735</v>
       </c>
       <c r="G12">
-        <v>0.3475613070884549</v>
+        <v>0.3693351866507584</v>
       </c>
       <c r="H12">
-        <v>0.05829978615032161</v>
+        <v>0.05826968494997686</v>
       </c>
       <c r="I12">
-        <v>0.001924588664412141</v>
+        <v>0.002327580757901515</v>
       </c>
       <c r="J12">
-        <v>0.2971486965902059</v>
+        <v>0.2437809701551359</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1222742572413082</v>
+        <v>0.112780975359497</v>
       </c>
       <c r="M12">
-        <v>1.501014168462092</v>
+        <v>0.07078835751401158</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1206716475648122</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.484886352577774</v>
       </c>
       <c r="P12">
-        <v>0.7490699586974543</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.30745799818159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.7695195991730372</v>
+      </c>
+      <c r="S12">
+        <v>1.166878272761977</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.408806250144863</v>
+        <v>1.334222300891781</v>
       </c>
       <c r="C13">
-        <v>0.2074673881511728</v>
+        <v>0.2265674501931301</v>
       </c>
       <c r="D13">
-        <v>0.2204784938175237</v>
+        <v>0.2323334608625629</v>
       </c>
       <c r="E13">
-        <v>0.1005335254584843</v>
+        <v>0.1026021496661613</v>
       </c>
       <c r="F13">
-        <v>0.5999688041153135</v>
+        <v>0.5531826140016349</v>
       </c>
       <c r="G13">
-        <v>0.3158169371603776</v>
+        <v>0.333975818436592</v>
       </c>
       <c r="H13">
-        <v>0.1137666729757143</v>
+        <v>0.1137490931754854</v>
       </c>
       <c r="I13">
-        <v>0.001781478038989093</v>
+        <v>0.002178585256785048</v>
       </c>
       <c r="J13">
-        <v>0.2812422545139412</v>
+        <v>0.2374656582665224</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.07281922544502351</v>
+        <v>0.1092974701905245</v>
       </c>
       <c r="M13">
-        <v>1.456111536115628</v>
+        <v>0.06564657818242736</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.07180827992789318</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.440894798183137</v>
       </c>
       <c r="P13">
-        <v>0.7672120391301149</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.206819602314084</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.7893368592743784</v>
+      </c>
+      <c r="S13">
+        <v>1.082811992433648</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.36311939390572</v>
+        <v>1.296292802384642</v>
       </c>
       <c r="C14">
-        <v>0.1997719620845686</v>
+        <v>0.2165040471276285</v>
       </c>
       <c r="D14">
-        <v>0.1863296869613578</v>
+        <v>0.1961463065143079</v>
       </c>
       <c r="E14">
-        <v>0.07197789447932834</v>
+        <v>0.07353423083329247</v>
       </c>
       <c r="F14">
-        <v>0.5513205573526818</v>
+        <v>0.5115215059637421</v>
       </c>
       <c r="G14">
-        <v>0.2933301412148239</v>
+        <v>0.3021338471932324</v>
       </c>
       <c r="H14">
-        <v>0.16290378766206</v>
+        <v>0.1628988265411664</v>
       </c>
       <c r="I14">
-        <v>0.001694307689099617</v>
+        <v>0.002099226474755689</v>
       </c>
       <c r="J14">
-        <v>0.2705118771776966</v>
+        <v>0.2391268362247096</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.04956158858493609</v>
+        <v>0.1077322461791823</v>
       </c>
       <c r="M14">
-        <v>1.405487053969608</v>
+        <v>0.06211702596451829</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.04900528685014294</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.393181627367483</v>
       </c>
       <c r="P14">
-        <v>0.7838498235572118</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.136620426297668</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.8047069105715678</v>
+      </c>
+      <c r="S14">
+        <v>1.029765825042091</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.342195342444029</v>
+        <v>1.278543898082035</v>
       </c>
       <c r="C15">
-        <v>0.1973593376092424</v>
+        <v>0.213489458334351</v>
       </c>
       <c r="D15">
-        <v>0.177444227592872</v>
+        <v>0.1865293769739935</v>
       </c>
       <c r="E15">
-        <v>0.065613836032405</v>
+        <v>0.06703035515609557</v>
       </c>
       <c r="F15">
-        <v>0.5384721481715005</v>
+        <v>0.5013218423423922</v>
       </c>
       <c r="G15">
-        <v>0.287318097705672</v>
+        <v>0.2911313642123758</v>
       </c>
       <c r="H15">
-        <v>0.1753290445010549</v>
+        <v>0.1753290352310017</v>
       </c>
       <c r="I15">
-        <v>0.001753963290786587</v>
+        <v>0.002180872681170953</v>
       </c>
       <c r="J15">
-        <v>0.2679106465732843</v>
+        <v>0.2421181578326781</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.04535424607874461</v>
+        <v>0.1076562547329925</v>
       </c>
       <c r="M15">
-        <v>1.38424814545354</v>
+        <v>0.06118674197428398</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.04493053189889018</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.373613695374985</v>
       </c>
       <c r="P15">
-        <v>0.7894443739552557</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.118396410905447</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.8089945208505185</v>
+      </c>
+      <c r="S15">
+        <v>1.018171024526779</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.258079927081297</v>
+        <v>1.205410861144486</v>
       </c>
       <c r="C16">
-        <v>0.1882513298868531</v>
+        <v>0.2034735557889746</v>
       </c>
       <c r="D16">
-        <v>0.1692507804662711</v>
+        <v>0.1761987836079015</v>
       </c>
       <c r="E16">
-        <v>0.06416914635530446</v>
+        <v>0.06540225319460546</v>
       </c>
       <c r="F16">
-        <v>0.531371368055467</v>
+        <v>0.5024528754994861</v>
       </c>
       <c r="G16">
-        <v>0.2848361774783399</v>
+        <v>0.2665441442357803</v>
       </c>
       <c r="H16">
-        <v>0.16220494011651</v>
+        <v>0.1622177766813451</v>
       </c>
       <c r="I16">
-        <v>0.001651535979677377</v>
+        <v>0.0020734420518842</v>
       </c>
       <c r="J16">
-        <v>0.2695340805526811</v>
+        <v>0.2675604340258886</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.0452848057297377</v>
+        <v>0.1112677380335381</v>
       </c>
       <c r="M16">
-        <v>1.299700435001682</v>
+        <v>0.06115904716925513</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.04513225549905897</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.296968827450627</v>
       </c>
       <c r="P16">
-        <v>0.7994193803669205</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.116366720443011</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.810502715034346</v>
+      </c>
+      <c r="S16">
+        <v>1.036988421346706</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.217728998717234</v>
+        <v>1.168635270390979</v>
       </c>
       <c r="C17">
-        <v>0.1853984208058961</v>
+        <v>0.2008856437831383</v>
       </c>
       <c r="D17">
-        <v>0.1806008351812665</v>
+        <v>0.1870561114842957</v>
       </c>
       <c r="E17">
-        <v>0.07708187457524218</v>
+        <v>0.07840072686002841</v>
       </c>
       <c r="F17">
-        <v>0.5513760532585366</v>
+        <v>0.5246498221820275</v>
       </c>
       <c r="G17">
-        <v>0.2947535812190623</v>
+        <v>0.2668331991465749</v>
       </c>
       <c r="H17">
-        <v>0.1242400547254903</v>
+        <v>0.1242528123981117</v>
       </c>
       <c r="I17">
-        <v>0.001653567379763743</v>
+        <v>0.002065027154869448</v>
       </c>
       <c r="J17">
-        <v>0.2764584238633887</v>
+        <v>0.2852580419923996</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.05555999164226577</v>
+        <v>0.1150624564091007</v>
       </c>
       <c r="M17">
-        <v>1.261741020472982</v>
+        <v>0.06280601892627757</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.05543628725197181</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.262436811182454</v>
       </c>
       <c r="P17">
-        <v>0.7984421689378181</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.15179337701575</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.8049624276649752</v>
+      </c>
+      <c r="S17">
+        <v>1.078029994911759</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.212295425654418</v>
+        <v>1.161925402988999</v>
       </c>
       <c r="C18">
-        <v>0.1865949998506835</v>
+        <v>0.2037206139640233</v>
       </c>
       <c r="D18">
-        <v>0.2116783407406189</v>
+        <v>0.2186209698390797</v>
       </c>
       <c r="E18">
-        <v>0.1089620218685532</v>
+        <v>0.1105594549702715</v>
       </c>
       <c r="F18">
-        <v>0.5992847229091538</v>
+        <v>0.5711887856104525</v>
       </c>
       <c r="G18">
-        <v>0.317692871587802</v>
+        <v>0.2839710006526914</v>
       </c>
       <c r="H18">
-        <v>0.07139343015662547</v>
+        <v>0.07140772645466598</v>
       </c>
       <c r="I18">
-        <v>0.001424759287802502</v>
+        <v>0.001783808476806925</v>
       </c>
       <c r="J18">
-        <v>0.2892790964902474</v>
+        <v>0.3021462683807528</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.08580576213045177</v>
+        <v>0.1199597788969857</v>
       </c>
       <c r="M18">
-        <v>1.259117806869654</v>
+        <v>0.06643838751494435</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.08553837585570534</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.261427363057919</v>
       </c>
       <c r="P18">
-        <v>0.7886033547675595</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.227226152249074</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.7921905586423819</v>
+      </c>
+      <c r="S18">
+        <v>1.150127330432838</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.230543562476953</v>
+        <v>1.175667357253559</v>
       </c>
       <c r="C19">
-        <v>0.1933368940926528</v>
+        <v>0.2135410717409059</v>
       </c>
       <c r="D19">
-        <v>0.2599138669283434</v>
+        <v>0.2680398428642974</v>
       </c>
       <c r="E19">
-        <v>0.1618502488419722</v>
+        <v>0.1638793716265354</v>
       </c>
       <c r="F19">
-        <v>0.6667087538416325</v>
+        <v>0.6348808783867597</v>
       </c>
       <c r="G19">
-        <v>0.3487495101154749</v>
+        <v>0.3108121339424201</v>
       </c>
       <c r="H19">
-        <v>0.02631369377284898</v>
+        <v>0.02633524949981592</v>
       </c>
       <c r="I19">
-        <v>0.001552410371389534</v>
+        <v>0.00194409038003851</v>
       </c>
       <c r="J19">
-        <v>0.3054166157401283</v>
+        <v>0.3184453213278786</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1448192091237814</v>
+        <v>0.1251232628845109</v>
       </c>
       <c r="M19">
-        <v>1.285327512431081</v>
+        <v>0.07115096477584615</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.144255357325477</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.288329370510553</v>
       </c>
       <c r="P19">
-        <v>0.7753436600681098</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.326861120870049</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.7769808534419624</v>
+      </c>
+      <c r="S19">
+        <v>1.240721402716062</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.323506610662918</v>
+        <v>1.255026795157477</v>
       </c>
       <c r="C20">
-        <v>0.2113916329735872</v>
+        <v>0.2383707665188268</v>
       </c>
       <c r="D20">
-        <v>0.3538813761458499</v>
+        <v>0.3653206765379764</v>
       </c>
       <c r="E20">
-        <v>0.2709430595064859</v>
+        <v>0.2739179779126317</v>
       </c>
       <c r="F20">
-        <v>0.7903487314148521</v>
+        <v>0.7475174547606755</v>
       </c>
       <c r="G20">
-        <v>0.4045577090976309</v>
+        <v>0.3676675780038607</v>
       </c>
       <c r="H20">
-        <v>0.0009991494345595875</v>
+        <v>0.001023709800588968</v>
       </c>
       <c r="I20">
-        <v>0.001748637958321808</v>
+        <v>0.002195957544774529</v>
       </c>
       <c r="J20">
-        <v>0.3318368096908841</v>
+        <v>0.3322515802598716</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2805462200300894</v>
+        <v>0.1308860336720681</v>
       </c>
       <c r="M20">
-        <v>1.391550752061505</v>
+        <v>0.08004639595291607</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2791144999726498</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.392877777841051</v>
       </c>
       <c r="P20">
-        <v>0.7492641752764122</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.500632726555807</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.750429194117622</v>
+      </c>
+      <c r="S20">
+        <v>1.387937651468874</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.493445604076811</v>
+        <v>1.399832016907737</v>
       </c>
       <c r="C21">
-        <v>0.23346064528954</v>
+        <v>0.2636326453971805</v>
       </c>
       <c r="D21">
-        <v>0.4017540121968466</v>
+        <v>0.4202686579725423</v>
       </c>
       <c r="E21">
-        <v>0.310463548159511</v>
+        <v>0.3148742292812372</v>
       </c>
       <c r="F21">
-        <v>0.8470238378694148</v>
+        <v>0.7792343339132231</v>
       </c>
       <c r="G21">
-        <v>0.4287945962527999</v>
+        <v>0.4491392554500209</v>
       </c>
       <c r="H21">
-        <v>0.002125974264549857</v>
+        <v>0.002061349490480646</v>
       </c>
       <c r="I21">
-        <v>0.002309672284046549</v>
+        <v>0.002755301050453518</v>
       </c>
       <c r="J21">
-        <v>0.3386803567164662</v>
+        <v>0.2702038521120471</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3234838343826851</v>
+        <v>0.1242022768262903</v>
       </c>
       <c r="M21">
-        <v>1.568564867070961</v>
+        <v>0.08367984881784096</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3204202371194214</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.553182953999311</v>
       </c>
       <c r="P21">
-        <v>0.7201442058531313</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.566651979551921</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.7317993403452476</v>
+      </c>
+      <c r="S21">
+        <v>1.392827117055248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.605347678634189</v>
+        <v>1.494507721973008</v>
       </c>
       <c r="C22">
-        <v>0.2458527159249115</v>
+        <v>0.277406377958556</v>
       </c>
       <c r="D22">
-        <v>0.4284883212163493</v>
+        <v>0.4519946958749017</v>
       </c>
       <c r="E22">
-        <v>0.3307530938613041</v>
+        <v>0.3361763272673386</v>
       </c>
       <c r="F22">
-        <v>0.8807111686993494</v>
+        <v>0.7953874383139308</v>
       </c>
       <c r="G22">
-        <v>0.4438649396033725</v>
+        <v>0.5102766716020142</v>
       </c>
       <c r="H22">
-        <v>0.003127388421234722</v>
+        <v>0.002971561700908509</v>
       </c>
       <c r="I22">
-        <v>0.002564653813671214</v>
+        <v>0.002894428347802069</v>
       </c>
       <c r="J22">
-        <v>0.3428331836932301</v>
+        <v>0.235345770928582</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.344340712285927</v>
+        <v>0.1199367471026083</v>
       </c>
       <c r="M22">
-        <v>1.681445224519138</v>
+        <v>0.08617106129316454</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3401671129448829</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.653727842893602</v>
       </c>
       <c r="P22">
-        <v>0.7020589862894653</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.607489453948716</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.72134909587637</v>
+      </c>
+      <c r="S22">
+        <v>1.390703669699434</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.548639877283506</v>
+        <v>1.448138349933487</v>
       </c>
       <c r="C23">
-        <v>0.2377225665817946</v>
+        <v>0.2689229230164756</v>
       </c>
       <c r="D23">
-        <v>0.4137997508772457</v>
+        <v>0.4340224744277918</v>
       </c>
       <c r="E23">
-        <v>0.319827385252168</v>
+        <v>0.324573604505936</v>
       </c>
       <c r="F23">
-        <v>0.8642325612023285</v>
+        <v>0.7902959709039621</v>
       </c>
       <c r="G23">
-        <v>0.4370352863226969</v>
+        <v>0.4710022700431438</v>
       </c>
       <c r="H23">
-        <v>0.002574832363374191</v>
+        <v>0.002475286242398234</v>
       </c>
       <c r="I23">
-        <v>0.002119682802098843</v>
+        <v>0.002456895688587757</v>
       </c>
       <c r="J23">
-        <v>0.341233334370159</v>
+        <v>0.2591826406701259</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3332860135119802</v>
+        <v>0.1227298661392169</v>
       </c>
       <c r="M23">
-        <v>1.621004411843245</v>
+        <v>0.08552858894237403</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3298167135534271</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.601795066012386</v>
       </c>
       <c r="P23">
-        <v>0.7112527620185212</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.589558346681599</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.7255624761914987</v>
+      </c>
+      <c r="S23">
+        <v>1.400588062730776</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.328647315265698</v>
+        <v>1.259704686857845</v>
       </c>
       <c r="C24">
-        <v>0.2096276925944949</v>
+        <v>0.2366383747359464</v>
       </c>
       <c r="D24">
-        <v>0.3590466429313182</v>
+        <v>0.3705842195738001</v>
       </c>
       <c r="E24">
-        <v>0.2786992252374176</v>
+        <v>0.2817202810153887</v>
       </c>
       <c r="F24">
-        <v>0.8004865219246113</v>
+        <v>0.7572523029215077</v>
       </c>
       <c r="G24">
-        <v>0.4100330781616606</v>
+        <v>0.3722712952094298</v>
       </c>
       <c r="H24">
-        <v>0.0009359630958545306</v>
+        <v>0.000961104721610706</v>
       </c>
       <c r="I24">
-        <v>0.001271980321128297</v>
+        <v>0.001620865936075688</v>
       </c>
       <c r="J24">
-        <v>0.3346779999180001</v>
+        <v>0.335456547663803</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2913479656758398</v>
+        <v>0.1321046430834816</v>
       </c>
       <c r="M24">
-        <v>1.392549258782054</v>
+        <v>0.08117382353646363</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2898804931328129</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.394043338162192</v>
       </c>
       <c r="P24">
-        <v>0.748047088817664</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.51818831214905</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.7485810656257144</v>
+      </c>
+      <c r="S24">
+        <v>1.404402550639972</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.090671741950302</v>
+        <v>1.041451672207245</v>
       </c>
       <c r="C25">
-        <v>0.1797167932537604</v>
+        <v>0.1964503301276039</v>
       </c>
       <c r="D25">
-        <v>0.3003453511820595</v>
+        <v>0.3090843106578518</v>
       </c>
       <c r="E25">
-        <v>0.2344898106916489</v>
+        <v>0.2370775780863781</v>
       </c>
       <c r="F25">
-        <v>0.7340907174091882</v>
+        <v>0.7004964156119087</v>
       </c>
       <c r="G25">
-        <v>0.3827020177956584</v>
+        <v>0.3452299860335089</v>
       </c>
       <c r="H25">
-        <v>6.11096243268161E-05</v>
+        <v>8.387119614883254E-05</v>
       </c>
       <c r="I25">
-        <v>0.001117249507530893</v>
+        <v>0.001296493588224479</v>
       </c>
       <c r="J25">
-        <v>0.3287169212949195</v>
+        <v>0.3374114223310798</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.246177601017564</v>
+        <v>0.1401057417199851</v>
       </c>
       <c r="M25">
-        <v>1.146237333529626</v>
+        <v>0.07484517363212717</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2455762633001655</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.148997365928324</v>
       </c>
       <c r="P25">
-        <v>0.7903411949909653</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.447308668763839</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.7828478081796568</v>
+      </c>
+      <c r="S25">
+        <v>1.355934682085106</v>
       </c>
     </row>
   </sheetData>
